--- a/keyboards/sofle/keymaps/rgb_default_swe/bastardkb_standard_rev1.xlsx
+++ b/keyboards/sofle/keymaps/rgb_default_swe/bastardkb_standard_rev1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\riddle\qmk_firmware\keyboards\sofle\keymaps\rgb_default_swe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6474A-3C11-4601-B3B4-8A1658DC8582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D23ACA-862B-47CA-B3F5-945D3F386317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1060" yWindow="-13800" windowWidth="18680" windowHeight="11320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>BastardKB RP2040 standard - revision 1</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>rx</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>row A</t>
+  </si>
+  <si>
+    <t>col B</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -891,7 +903,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1238,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>48</v>
@@ -1246,7 +1258,7 @@
         <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1286,6 +1298,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
       <c r="G28" t="s">
         <v>72</v>
       </c>
